--- a/game/data/excel/level_info.xlsx
+++ b/game/data/excel/level_info.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,10 @@
   </si>
   <si>
     <t>["奇怪的门"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -537,7 +541,7 @@
     <col min="10" max="10" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -553,8 +557,11 @@
       <c r="E1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -571,7 +578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -587,8 +594,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -604,8 +614,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -621,8 +634,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -638,8 +654,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -656,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -673,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -690,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
